--- a/dados/subgrave autoparts.xlsx
+++ b/dados/subgrave autoparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2873301438-controle-longa-distancia-jfa-redline-wr-key1-ad1-multimidia-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fbfb2b8-92dd-46d9-8156-a52da27ee60f</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2873301438-controle-longa-distancia-jfa-redline-wr-key1-ad1-multimidia-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5bb8ae2-01a8-4ac0-a3e7-9e4810c221df</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2872406163-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa7bfbd4-25b5-4128-98de-2d50b86dcd36</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2872406163-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2694a7a2-cb5d-46bb-b835-b3ff45cf8670</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2872539303-controle-longa-distncia-k1200-jfa-1200-metros-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83a82762-25cc-4c81-bff3-726da43e93d5</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2872539303-controle-longa-distncia-k1200-jfa-1200-metros-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcf1f581-3d81-4b93-90fb-631fbd4c42aa</t>
         </is>
       </c>
     </row>
@@ -546,17 +574,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185900332-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc12adfe-a9c5-4407-8326-c049bebab165</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185900332-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc3254e85-464a-47d2-b878-bdca4227f082</t>
         </is>
       </c>
     </row>
@@ -571,17 +605,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185884168-voltimetro-sequenciador-digital-jfa-vs5hi-led-vermelho-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8892fa9b-75a2-45a2-8fed-c813a2d5a88a</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185884168-voltimetro-sequenciador-digital-jfa-vs5hi-led-vermelho-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45721eeb-3c18-4f9f-88fa-49604a41c9c4</t>
         </is>
       </c>
     </row>

--- a/dados/subgrave autoparts.xlsx
+++ b/dados/subgrave autoparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,167 +483,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>subgrave autoparts</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa Redline Wr Key1 Ad1 Multimidia</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>CONTROLE WR</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>106.97</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2873301438-controle-longa-distancia-jfa-redline-wr-key1-ad1-multimidia-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a7ea3da-52fb-40dd-a10d-df2c99cb7df1</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2873301438-controle-longa-distancia-jfa-redline-wr-key1-ad1-multimidia-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ea3a4f5-9fab-41e6-9455-ea1bea1f7731</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>subgrave autoparts</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>CONTROLE WR</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>91.42</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2872406163-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7c4e1cd-e487-421b-adcf-56c8caa7b416</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2872406163-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfac91a18-86de-4e6f-b4f0-68dd328fa5ee</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância K1200 Jfa 1200 Metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>69.44</v>
+          <t>subgrave autoparts</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem 12v</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>57.49</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2872539303-controle-longa-distncia-k1200-jfa-1200-metros-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c8f20a5-5b28-40fa-96d7-a8ea50d441b4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Voltímetro Sequenciador Digital Jfa Vs5hi Led Vermelho</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>61.49</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185884168-voltimetro-sequenciador-digital-jfa-vs5hi-led-vermelho-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ada0fb5-2665-4c38-b717-b55b13f296a6</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem 12v</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>57.49</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185900332-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ada0fb5-2665-4c38-b717-b55b13f296a6</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185900332-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d5ca327-689d-4181-ac63-44ca774b4075</t>
         </is>
       </c>
     </row>

--- a/dados/subgrave autoparts.xlsx
+++ b/dados/subgrave autoparts.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,193 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>loja</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>nome</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>preco</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>politica</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>tipo</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>subgrave autoparts</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr Key1 Ad1 Multimidia</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>106.97</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2873301438-controle-longa-distancia-jfa-redline-wr-key1-ad1-multimidia-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ea3a4f5-9fab-41e6-9455-ea1bea1f7731</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>subgrave autoparts</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>91.42</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2872406163-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfac91a18-86de-4e6f-b4f0-68dd328fa5ee</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>subgrave autoparts</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem 12v</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>57.49</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185900332-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d5ca327-689d-4181-ac63-44ca774b4075</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>